--- a/Data/detective_constant_wf.xlsx
+++ b/Data/detective_constant_wf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>sim</t>
   </si>
@@ -135,6 +135,126 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -232,28 +352,28 @@
         <v>2015.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.68286513529855E7</v>
+        <v>5.2352323724546686E7</v>
       </c>
       <c r="E2" t="n">
-        <v>5.68286513529855E7</v>
+        <v>5.2352323724546686E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1776136.4605206433</v>
+        <v>1463574.272662404</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5292474532366104E7</v>
+        <v>3.763223761566871E7</v>
       </c>
       <c r="H2" t="n">
         <v>1994923.9525796664</v>
       </c>
       <c r="I2" t="n">
-        <v>1.1040551255649982E7</v>
+        <v>9659652.223674512</v>
       </c>
       <c r="J2" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K2" t="n">
-        <v>16.087389292375313</v>
+        <v>15.151417864458722</v>
       </c>
       <c r="L2" t="n">
         <v>100.0</v>
@@ -270,31 +390,31 @@
         <v>2016.0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.071407899084365E7</v>
+        <v>5.557799466286506E7</v>
       </c>
       <c r="E3" t="n">
-        <v>6.071407899084366E7</v>
+        <v>5.557799466286507E7</v>
       </c>
       <c r="F3" t="n">
-        <v>1799769.9617939282</v>
+        <v>1475651.959857756</v>
       </c>
       <c r="G3" t="n">
-        <v>4.653509944369272E7</v>
+        <v>3.846747623929364E7</v>
       </c>
       <c r="H3" t="n">
-        <v>2484942.5035738335</v>
+        <v>2433045.393378667</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1322854852785304E7</v>
+        <v>9868726.443307186</v>
       </c>
       <c r="J3" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K3" t="n">
-        <v>15.895019279092883</v>
+        <v>14.952810459737892</v>
       </c>
       <c r="L3" t="n">
-        <v>99.99999999999999</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="4">
@@ -308,28 +428,28 @@
         <v>2017.0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.4381002166620865E7</v>
+        <v>5.8580594818471596E7</v>
       </c>
       <c r="E4" t="n">
-        <v>6.438100216662088E7</v>
+        <v>5.858059481847162E7</v>
       </c>
       <c r="F4" t="n">
-        <v>1830380.6146733146</v>
+        <v>1493583.4374388193</v>
       </c>
       <c r="G4" t="n">
-        <v>4.786224385858685E7</v>
+        <v>3.9366490846775755E7</v>
       </c>
       <c r="H4" t="n">
-        <v>2683572.299397701</v>
+        <v>2606673.251852886</v>
       </c>
       <c r="I4" t="n">
-        <v>1.163522891266205E7</v>
+        <v>1.0103069339396711E7</v>
       </c>
       <c r="J4" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K4" t="n">
-        <v>15.731367456650561</v>
+        <v>14.783462206031006</v>
       </c>
       <c r="L4" t="n">
         <v>99.99999999999997</v>
@@ -346,28 +466,28 @@
         <v>2018.0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.813357674183397E7</v>
+        <v>6.16338991168517E7</v>
       </c>
       <c r="E5" t="n">
-        <v>6.813357674183398E7</v>
+        <v>6.1633899116851725E7</v>
       </c>
       <c r="F5" t="n">
-        <v>1866317.327586725</v>
+        <v>1515901.9650373883</v>
       </c>
       <c r="G5" t="n">
-        <v>4.928208964957325E7</v>
+        <v>4.033575573124874E7</v>
       </c>
       <c r="H5" t="n">
-        <v>2883731.5987655288</v>
+        <v>2780458.7331467844</v>
       </c>
       <c r="I5" t="n">
-        <v>1.1974772722306581E7</v>
+        <v>1.0359988902511623E7</v>
       </c>
       <c r="J5" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K5" t="n">
-        <v>15.585409183676221</v>
+        <v>14.632274023670824</v>
       </c>
       <c r="L5" t="n">
         <v>99.99999999999997</v>
@@ -384,31 +504,31 @@
         <v>2019.0</v>
       </c>
       <c r="D6" t="n">
-        <v>7.198208424977764E7</v>
+        <v>6.474611966902612E7</v>
       </c>
       <c r="E6" t="n">
-        <v>7.198208424977767E7</v>
+        <v>6.4746119669026144E7</v>
       </c>
       <c r="F6" t="n">
-        <v>1906802.521676572</v>
+        <v>1541906.1075064898</v>
       </c>
       <c r="G6" t="n">
-        <v>5.080780414986895E7</v>
+        <v>4.138590876877656E7</v>
       </c>
       <c r="H6" t="n">
-        <v>3085049.972342245</v>
+        <v>2954031.9609869956</v>
       </c>
       <c r="I6" t="n">
-        <v>1.234037852753651E7</v>
+        <v>1.0638407470301444E7</v>
       </c>
       <c r="J6" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851837</v>
       </c>
       <c r="K6" t="n">
-        <v>15.451734461967304</v>
+        <v>14.493768092742542</v>
       </c>
       <c r="L6" t="n">
-        <v>99.99999999999996</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="7">
@@ -422,31 +542,31 @@
         <v>2020.0</v>
       </c>
       <c r="D7" t="n">
-        <v>7.59371149670476E7</v>
+        <v>6.792570836717267E7</v>
       </c>
       <c r="E7" t="n">
-        <v>7.593711496704763E7</v>
+        <v>6.792570836717269E7</v>
       </c>
       <c r="F7" t="n">
-        <v>1950938.7009298778</v>
+        <v>1570800.734216895</v>
       </c>
       <c r="G7" t="n">
-        <v>5.243483604673567E7</v>
+        <v>4.251212242945519E7</v>
       </c>
       <c r="H7" t="n">
-        <v>3290916.47217586</v>
+        <v>3130263.0127193187</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2729959811249897E7</v>
+        <v>1.0936396215700522E7</v>
       </c>
       <c r="J7" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K7" t="n">
-        <v>15.325568421714634</v>
+        <v>14.363056195438679</v>
       </c>
       <c r="L7" t="n">
-        <v>99.99999999999996</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="8">
@@ -460,31 +580,31 @@
         <v>2021.0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.000542964249724E7</v>
+        <v>7.117779893009885E7</v>
       </c>
       <c r="E8" t="n">
-        <v>8.000542964249727E7</v>
+        <v>7.117779893009888E7</v>
       </c>
       <c r="F8" t="n">
-        <v>1996021.2438873043</v>
+        <v>1600319.408019234</v>
       </c>
       <c r="G8" t="n">
-        <v>5.406762415242673E7</v>
+        <v>4.363100753933359E7</v>
       </c>
       <c r="H8" t="n">
-        <v>3585778.5864376226</v>
+        <v>3392053.1178433266</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3133537679392016E7</v>
+        <v>1.1245641184180008E7</v>
       </c>
       <c r="J8" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851837</v>
       </c>
       <c r="K8" t="n">
-        <v>15.197894829351913</v>
+        <v>14.230575045116234</v>
       </c>
       <c r="L8" t="n">
-        <v>99.99999999999997</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="9">
@@ -498,28 +618,28 @@
         <v>2022.0</v>
       </c>
       <c r="D9" t="n">
-        <v>8.410080854169309E7</v>
+        <v>7.441655494874467E7</v>
       </c>
       <c r="E9" t="n">
-        <v>8.410080854169314E7</v>
+        <v>7.441655494874471E7</v>
       </c>
       <c r="F9" t="n">
-        <v>2046039.3293465269</v>
+        <v>1633841.9619658596</v>
       </c>
       <c r="G9" t="n">
-        <v>5.584664291850643E7</v>
+        <v>4.486397469514375E7</v>
       </c>
       <c r="H9" t="n">
-        <v>3793346.5069613326</v>
+        <v>3567047.3184220875</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3566464592006076E7</v>
+        <v>1.15789662445873E7</v>
       </c>
       <c r="J9" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K9" t="n">
-        <v>15.081595617417806</v>
+        <v>14.110430304860893</v>
       </c>
       <c r="L9" t="n">
         <v>99.99999999999994</v>
@@ -536,31 +656,31 @@
         <v>2023.0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.832413021297395E7</v>
+        <v>7.773839243772937E7</v>
       </c>
       <c r="E10" t="n">
-        <v>8.8324130212974E7</v>
+        <v>7.77383924377294E7</v>
       </c>
       <c r="F10" t="n">
-        <v>2100216.4226032905</v>
+        <v>1670672.1725360216</v>
       </c>
       <c r="G10" t="n">
-        <v>5.775615082893902E7</v>
+        <v>4.6196691629717596E7</v>
       </c>
       <c r="H10" t="n">
-        <v>4003623.6407803334</v>
+        <v>3742916.9133203565</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4026107357205315E7</v>
+        <v>1.1933852742077004E7</v>
       </c>
       <c r="J10" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K10" t="n">
-        <v>14.97362289562395</v>
+        <v>13.999436800870502</v>
       </c>
       <c r="L10" t="n">
-        <v>99.99999999999994</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="11">
@@ -574,31 +694,31 @@
         <v>2024.0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.268622541191968E7</v>
+        <v>8.115194340497354E7</v>
       </c>
       <c r="E11" t="n">
-        <v>9.268622541191973E7</v>
+        <v>8.115194340497358E7</v>
       </c>
       <c r="F11" t="n">
-        <v>2158274.746370376</v>
+        <v>1710549.0674383747</v>
       </c>
       <c r="G11" t="n">
-        <v>5.978814866089857E7</v>
+        <v>4.762160888634581E7</v>
       </c>
       <c r="H11" t="n">
-        <v>4218194.948817736</v>
+        <v>3920949.201434973</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4511166279731864E7</v>
+        <v>1.230902004811363E7</v>
       </c>
       <c r="J11" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K11" t="n">
-        <v>14.873199746769469</v>
+        <v>13.896712010803153</v>
       </c>
       <c r="L11" t="n">
-        <v>99.99999999999996</v>
+        <v>99.99999999999994</v>
       </c>
     </row>
     <row r="12">
@@ -612,31 +732,31 @@
         <v>2025.0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.719671233715905E7</v>
+        <v>8.46648051581228E7</v>
       </c>
       <c r="E12" t="n">
-        <v>9.719671233715911E7</v>
+        <v>8.466480515812282E7</v>
       </c>
       <c r="F12" t="n">
-        <v>2219895.4207195803</v>
+        <v>1753177.4292791008</v>
       </c>
       <c r="G12" t="n">
-        <v>6.1942354308007434E7</v>
+        <v>4.913775880226106E7</v>
       </c>
       <c r="H12" t="n">
-        <v>4438789.350781393</v>
+        <v>4102540.9184347703</v>
       </c>
       <c r="I12" t="n">
-        <v>1.502077460377618E7</v>
+        <v>1.2703577867181199E7</v>
       </c>
       <c r="J12" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K12" t="n">
-        <v>14.778834509383456</v>
+        <v>13.800658740466428</v>
       </c>
       <c r="L12" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -650,28 +770,28 @@
         <v>2026.0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0186371024161181E8</v>
+        <v>8.828331118996724E7</v>
       </c>
       <c r="E13" t="n">
-        <v>1.0186371024161187E8</v>
+        <v>8.828331118996729E7</v>
       </c>
       <c r="F13" t="n">
-        <v>2283428.7023309586</v>
+        <v>1797206.4526339893</v>
       </c>
       <c r="G13" t="n">
-        <v>6.4120694655055374E7</v>
+        <v>5.0661507920407705E7</v>
       </c>
       <c r="H13" t="n">
-        <v>4760296.546767918</v>
+        <v>4379641.518848288</v>
       </c>
       <c r="I13" t="n">
-        <v>1.554612536783884E7</v>
+        <v>1.311038663217057E7</v>
       </c>
       <c r="J13" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851836</v>
       </c>
       <c r="K13" t="n">
-        <v>14.688088821506732</v>
+        <v>13.708264317880317</v>
       </c>
       <c r="L13" t="n">
         <v>99.99999999999994</v>
@@ -688,31 +808,31 @@
         <v>2027.0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0659238847097002E8</v>
+        <v>9.191418964272505E7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.065923884709701E8</v>
+        <v>9.191418964272507E7</v>
       </c>
       <c r="F14" t="n">
-        <v>2350953.495784925</v>
+        <v>1844302.6897325679</v>
       </c>
       <c r="G14" t="n">
-        <v>6.645571210432111E7</v>
+        <v>5.230435727807285E7</v>
       </c>
       <c r="H14" t="n">
-        <v>5001878.766008554</v>
+        <v>4576060.971338906</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6098538112422023E7</v>
+        <v>1.3538471148280311E7</v>
       </c>
       <c r="J14" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851833</v>
       </c>
       <c r="K14" t="n">
-        <v>14.603521632631178</v>
+        <v>13.622680652289423</v>
       </c>
       <c r="L14" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -726,31 +846,31 @@
         <v>2028.0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1147721928280051E8</v>
+        <v>9.564815763479982E7</v>
       </c>
       <c r="E15" t="n">
-        <v>1.1147721928280059E8</v>
+        <v>9.564815763479982E7</v>
       </c>
       <c r="F15" t="n">
-        <v>2422251.5704678516</v>
+        <v>1894249.1471042638</v>
       </c>
       <c r="G15" t="n">
-        <v>6.89392792774088E7</v>
+        <v>5.405859478538914E7</v>
       </c>
       <c r="H15" t="n">
-        <v>5250777.857118925</v>
+        <v>4777061.685994258</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6677463235657806E7</v>
+        <v>1.3987152439027242E7</v>
       </c>
       <c r="J15" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851833</v>
       </c>
       <c r="K15" t="n">
-        <v>14.524100795430783</v>
+        <v>13.542779027837652</v>
       </c>
       <c r="L15" t="n">
-        <v>99.99999999999993</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="16">
@@ -764,31 +884,31 @@
         <v>2029.0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.1652572323837028E8</v>
+        <v>9.949083261536328E7</v>
       </c>
       <c r="E16" t="n">
-        <v>1.1652572323837037E8</v>
+        <v>9.949083261536333E7</v>
       </c>
       <c r="F16" t="n">
-        <v>2497406.729009757</v>
+        <v>1947080.3670984227</v>
       </c>
       <c r="G16" t="n">
-        <v>7.156988220614693E7</v>
+        <v>5.592210309165933E7</v>
       </c>
       <c r="H16" t="n">
-        <v>5507603.253828597</v>
+        <v>4983085.865093561</v>
       </c>
       <c r="I16" t="n">
-        <v>1.728336107768142E7</v>
+        <v>1.4456636841671381E7</v>
       </c>
       <c r="J16" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K16" t="n">
-        <v>14.449774657747222</v>
+        <v>13.468418612314773</v>
       </c>
       <c r="L16" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="17">
@@ -802,31 +922,31 @@
         <v>2030.0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.2174540240028393E8</v>
+        <v>1.0344780208337733E8</v>
       </c>
       <c r="E17" t="n">
-        <v>1.21745402400284E8</v>
+        <v>1.0344780208337736E8</v>
       </c>
       <c r="F17" t="n">
-        <v>2576382.434829871</v>
+        <v>2002733.7315925003</v>
       </c>
       <c r="G17" t="n">
-        <v>7.434998743748236E7</v>
+        <v>5.789608433621405E7</v>
       </c>
       <c r="H17" t="n">
-        <v>5833177.428038972</v>
+        <v>5254735.453000562</v>
       </c>
       <c r="I17" t="n">
-        <v>1.791655684006529E7</v>
+        <v>1.4947029295052769E7</v>
       </c>
       <c r="J17" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K17" t="n">
-        <v>14.379897085295562</v>
+        <v>13.398874733291475</v>
       </c>
       <c r="L17" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="18">
@@ -840,31 +960,31 @@
         <v>2031.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.2707903144408776E8</v>
+        <v>1.0745999588821204E8</v>
       </c>
       <c r="E18" t="n">
-        <v>1.2707903144408786E8</v>
+        <v>1.0745999588821208E8</v>
       </c>
       <c r="F18" t="n">
-        <v>2658397.3899368523</v>
+        <v>2060589.9187381782</v>
       </c>
       <c r="G18" t="n">
-        <v>7.722319235185042E7</v>
+        <v>5.99333293327891E7</v>
       </c>
       <c r="H18" t="n">
-        <v>6117696.3808544455</v>
+        <v>5480409.424996122</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8573530407470655E7</v>
+        <v>1.5455575757495824E7</v>
       </c>
       <c r="J18" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851837</v>
       </c>
       <c r="K18" t="n">
-        <v>14.312827618747109</v>
+        <v>13.332340063350983</v>
       </c>
       <c r="L18" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="19">
@@ -878,31 +998,31 @@
         <v>2032.0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.32582163056025E8</v>
+        <v>1.1158308916964579E8</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3258216305602512E8</v>
+        <v>1.1158308916964583E8</v>
       </c>
       <c r="F19" t="n">
-        <v>2744342.088692333</v>
+        <v>2121313.3942728583</v>
       </c>
       <c r="G19" t="n">
-        <v>8.025643475812793E7</v>
+        <v>6.208818421041754E7</v>
       </c>
       <c r="H19" t="n">
-        <v>6406626.292220074</v>
+        <v>5707987.710790283</v>
       </c>
       <c r="I19" t="n">
-        <v>1.9259400003846038E7</v>
+        <v>1.5986153806073193E7</v>
       </c>
       <c r="J19" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851837</v>
       </c>
       <c r="K19" t="n">
-        <v>14.249364404624739</v>
+        <v>13.269692134870892</v>
       </c>
       <c r="L19" t="n">
-        <v>99.99999999999991</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="20">
@@ -916,31 +1036,31 @@
         <v>2033.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.3826657006930333E8</v>
+        <v>1.1582615492998016E8</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3826657006930342E8</v>
+        <v>1.1582615492998022E8</v>
       </c>
       <c r="F20" t="n">
-        <v>2834261.225813827</v>
+        <v>2184908.2313420735</v>
       </c>
       <c r="G20" t="n">
-        <v>8.34449181845568E7</v>
+        <v>6.435585223172308E7</v>
       </c>
       <c r="H20" t="n">
-        <v>6705219.507145005</v>
+        <v>5941689.097692776</v>
       </c>
       <c r="I20" t="n">
-        <v>1.997460270218282E7</v>
+        <v>1.6538925373836793E7</v>
       </c>
       <c r="J20" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K20" t="n">
-        <v>14.189324654272598</v>
+        <v>13.210702521207434</v>
       </c>
       <c r="L20" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999994</v>
       </c>
     </row>
     <row r="21">
@@ -954,31 +1074,31 @@
         <v>2034.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.4413929364260015E8</v>
+        <v>1.2019440368324259E8</v>
       </c>
       <c r="E21" t="n">
-        <v>1.4413929364260024E8</v>
+        <v>1.2019440368324265E8</v>
       </c>
       <c r="F21" t="n">
-        <v>2928415.376531905</v>
+        <v>2251544.048070917</v>
       </c>
       <c r="G21" t="n">
-        <v>8.679296117450163E7</v>
+        <v>6.673898009349325E7</v>
       </c>
       <c r="H21" t="n">
-        <v>7013635.047082344</v>
+        <v>6181553.718919447</v>
       </c>
       <c r="I21" t="n">
-        <v>2.0720482185583428E7</v>
+        <v>1.7114775288176857E7</v>
       </c>
       <c r="J21" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K21" t="n">
-        <v>14.132949949250659</v>
+        <v>13.15555717302533</v>
       </c>
       <c r="L21" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="22">
@@ -992,31 +1112,31 @@
         <v>2035.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.5020799433502334E8</v>
+        <v>1.2469356257829264E8</v>
       </c>
       <c r="E22" t="n">
-        <v>1.5020799433502343E8</v>
+        <v>1.246935625782927E8</v>
       </c>
       <c r="F22" t="n">
-        <v>3026949.9433466736</v>
+        <v>2321297.3390308972</v>
       </c>
       <c r="G22" t="n">
-        <v>9.030940484777664E7</v>
+        <v>6.924383362211727E7</v>
       </c>
       <c r="H22" t="n">
-        <v>7370142.523726186</v>
+        <v>6465726.235691533</v>
       </c>
       <c r="I22" t="n">
-        <v>2.149823364186223E7</v>
+        <v>1.771445915283699E7</v>
       </c>
       <c r="J22" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K22" t="n">
-        <v>14.079993704471025</v>
+        <v>13.103969582154242</v>
       </c>
       <c r="L22" t="n">
-        <v>99.99999999999994</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="23">
@@ -1030,31 +1150,31 @@
         <v>2036.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.5643999988185552E8</v>
+        <v>1.2928894587355034E8</v>
       </c>
       <c r="E23" t="n">
-        <v>1.5643999988185558E8</v>
+        <v>1.292889458735504E8</v>
       </c>
       <c r="F23" t="n">
-        <v>3129593.7870027637</v>
+        <v>2393926.5353684616</v>
       </c>
       <c r="G23" t="n">
-        <v>9.398125673183998E7</v>
+        <v>7.185914133783978E7</v>
       </c>
       <c r="H23" t="n">
-        <v>7700472.281943442</v>
+        <v>6719451.1716532</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2307266158182647E7</v>
+        <v>1.8337449343631063E7</v>
       </c>
       <c r="J23" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K23" t="n">
-        <v>14.029481536691044</v>
+        <v>13.0548501621351</v>
       </c>
       <c r="L23" t="n">
-        <v>99.99999999999997</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="24">
@@ -1068,28 +1188,28 @@
         <v>2037.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.6287963268746617E8</v>
+        <v>1.3402326927696736E8</v>
       </c>
       <c r="E24" t="n">
-        <v>1.6287963268746623E8</v>
+        <v>1.340232692769674E8</v>
       </c>
       <c r="F24" t="n">
-        <v>3236790.186345558</v>
+        <v>2469764.9762072884</v>
       </c>
       <c r="G24" t="n">
-        <v>9.782776401713027E7</v>
+        <v>7.459946710989505E7</v>
       </c>
       <c r="H24" t="n">
-        <v>8039789.4412808465</v>
+        <v>6978442.326372403</v>
       </c>
       <c r="I24" t="n">
-        <v>2.314994259433759E7</v>
+        <v>1.898548479934613E7</v>
       </c>
       <c r="J24" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K24" t="n">
-        <v>13.98184973096766</v>
+        <v>13.008701133048486</v>
       </c>
       <c r="L24" t="n">
         <v>99.99999999999997</v>
@@ -1106,31 +1226,31 @@
         <v>2038.0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.6953718935638937E8</v>
+        <v>1.3890439984149542E8</v>
       </c>
       <c r="E25" t="n">
-        <v>1.6953718935638946E8</v>
+        <v>1.3890439984149545E8</v>
       </c>
       <c r="F25" t="n">
-        <v>3348668.5945824357</v>
+        <v>2548893.5447158664</v>
       </c>
       <c r="G25" t="n">
-        <v>1.0185048021606761E8</v>
+        <v>7.746519646714027E7</v>
       </c>
       <c r="H25" t="n">
-        <v>8389980.37289579</v>
+        <v>7244156.999688642</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402728389482318E7</v>
+        <v>1.9659273688893154E7</v>
       </c>
       <c r="J25" t="n">
-        <v>123273.00000000003</v>
+        <v>119943.02089851833</v>
       </c>
       <c r="K25" t="n">
-        <v>13.936941891729704</v>
+        <v>12.96534950910169</v>
       </c>
       <c r="L25" t="n">
-        <v>99.99999999999994</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="26">
@@ -1144,31 +1264,31 @@
         <v>2039.0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.7642182870248654E8</v>
+        <v>1.4393929877454552E8</v>
       </c>
       <c r="E26" t="n">
-        <v>1.7642182870248666E8</v>
+        <v>1.4393929877454558E8</v>
       </c>
       <c r="F26" t="n">
-        <v>3465539.0192207787</v>
+        <v>2631523.109039061</v>
       </c>
       <c r="G26" t="n">
-        <v>1.0605901932231726E8</v>
+        <v>8.046310286029589E7</v>
       </c>
       <c r="H26" t="n">
-        <v>8751256.026605088</v>
+        <v>7516714.153759953</v>
       </c>
       <c r="I26" t="n">
-        <v>2.494104657672217E7</v>
+        <v>2.0360064177925736E7</v>
       </c>
       <c r="J26" t="n">
-        <v>123273.00000000004</v>
+        <v>119943.02089851833</v>
       </c>
       <c r="K26" t="n">
-        <v>13.894922206092245</v>
+        <v>12.924925413015853</v>
       </c>
       <c r="L26" t="n">
-        <v>99.99999999999993</v>
+        <v>99.99999999999996</v>
       </c>
     </row>
     <row r="27">
@@ -1182,28 +1302,28 @@
         <v>2040.0</v>
       </c>
       <c r="D27" t="n">
-        <v>1.8354347979299715E8</v>
+        <v>1.4913553054023695E8</v>
       </c>
       <c r="E27" t="n">
-        <v>1.8354347979299724E8</v>
+        <v>1.49135530540237E8</v>
       </c>
       <c r="F27" t="n">
-        <v>3587593.0159121924</v>
+        <v>2717770.2065251134</v>
       </c>
       <c r="G27" t="n">
-        <v>1.104657011011744E8</v>
+        <v>8.360194110427894E7</v>
       </c>
       <c r="H27" t="n">
-        <v>9154461.725359045</v>
+        <v>7826946.4286625255</v>
       </c>
       <c r="I27" t="n">
-        <v>2.5892720531947464E7</v>
+        <v>2.1088870491426643E7</v>
       </c>
       <c r="J27" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851831</v>
       </c>
       <c r="K27" t="n">
-        <v>13.855604749936099</v>
+        <v>12.887225077464349</v>
       </c>
       <c r="L27" t="n">
         <v>99.99999999999996</v>
@@ -1220,31 +1340,31 @@
         <v>2041.0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.9087991538710773E8</v>
+        <v>1.5446826500616175E8</v>
       </c>
       <c r="E28" t="n">
-        <v>1.9087991538710782E8</v>
+        <v>1.5446826500616184E8</v>
       </c>
       <c r="F28" t="n">
-        <v>3715048.4011638546</v>
+        <v>2807790.153926793</v>
       </c>
       <c r="G28" t="n">
-        <v>1.1504819830775999E8</v>
+        <v>8.686327646174073E7</v>
       </c>
       <c r="H28" t="n">
-        <v>9535337.699542938</v>
+        <v>8110840.179628412</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6881874842619378E7</v>
+        <v>2.184534755794318E7</v>
       </c>
       <c r="J28" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851831</v>
       </c>
       <c r="K28" t="n">
-        <v>13.81990066881012</v>
+        <v>12.85303493789392</v>
       </c>
       <c r="L28" t="n">
-        <v>99.99999999999996</v>
+        <v>99.99999999999994</v>
       </c>
     </row>
     <row r="29">
@@ -1258,31 +1378,31 @@
         <v>2042.0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.9847644898016146E8</v>
+        <v>1.5997969306654352E8</v>
       </c>
       <c r="E29" t="n">
-        <v>1.9847644898016155E8</v>
+        <v>1.5997969306654358E8</v>
       </c>
       <c r="F29" t="n">
-        <v>3847967.4967979253</v>
+        <v>2901606.6768034813</v>
       </c>
       <c r="G29" t="n">
-        <v>1.198246551230119E8</v>
+        <v>9.026034226334627E7</v>
       </c>
       <c r="H29" t="n">
-        <v>9929161.658892326</v>
+        <v>8403027.862913432</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7911004144927893E7</v>
+        <v>2.2631277903274883E7</v>
       </c>
       <c r="J29" t="n">
-        <v>123273.0</v>
+        <v>119943.0208985183</v>
       </c>
       <c r="K29" t="n">
-        <v>13.786560586703917</v>
+        <v>12.821223305218666</v>
       </c>
       <c r="L29" t="n">
-        <v>99.99999999999996</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="30">
@@ -1296,31 +1416,31 @@
         <v>2043.0</v>
       </c>
       <c r="D30" t="n">
-        <v>2.0634391079237697E8</v>
+        <v>1.6567794659176502E8</v>
       </c>
       <c r="E30" t="n">
-        <v>2.0634391079237705E8</v>
+        <v>1.6567794659176508E8</v>
       </c>
       <c r="F30" t="n">
-        <v>3986530.060457262</v>
+        <v>2999343.420805555</v>
       </c>
       <c r="G30" t="n">
-        <v>1.2479092790137747E8</v>
+        <v>9.378897035386698E7</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0337765653981945E7</v>
+        <v>8704984.19143192</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8981293936466046E7</v>
+        <v>2.3447527268873908E7</v>
       </c>
       <c r="J30" t="n">
-        <v>123273.0</v>
+        <v>119943.02089851831</v>
       </c>
       <c r="K30" t="n">
-        <v>13.755528201041312</v>
+        <v>12.791725909567953</v>
       </c>
       <c r="L30" t="n">
-        <v>99.99999999999996</v>
+        <v>99.99999999999997</v>
       </c>
     </row>
     <row r="31">
@@ -1334,31 +1454,1551 @@
         <v>2044.0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.1449214415076908E8</v>
+        <v>1.7157029799317122E8</v>
       </c>
       <c r="E31" t="n">
-        <v>2.1449214415076917E8</v>
+        <v>1.7157029799317127E8</v>
       </c>
       <c r="F31" t="n">
-        <v>4131095.704315215</v>
+        <v>3101241.3109885002</v>
       </c>
       <c r="G31" t="n">
-        <v>1.2995970409434122E8</v>
+        <v>9.745801235349087E7</v>
       </c>
       <c r="H31" t="n">
-        <v>1.076164609319292E7</v>
+        <v>9017131.88391669</v>
       </c>
       <c r="I31" t="n">
-        <v>3.0095035143474974E7</v>
+        <v>2.4295732357098628E7</v>
       </c>
       <c r="J31" t="n">
-        <v>123273.00000000001</v>
+        <v>119943.02089851834</v>
       </c>
       <c r="K31" t="n">
-        <v>13.726834624450984</v>
+        <v>12.764551672723675</v>
       </c>
       <c r="L31" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2045.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.7766435195821065E8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.776643519582107E8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3207467.4306854666</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.0127455066446833E8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9342784.37676828</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.5177149000792146E7</v>
+      </c>
+      <c r="J32" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12.739597444430862</v>
+      </c>
+      <c r="L32" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2046.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.8396489005050707E8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.839648900505072E8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3319042.1618630798</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.052132023359948E8</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9663875.484553559</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.609178687410578E7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>119943.02089851834</v>
+      </c>
+      <c r="K33" t="n">
+        <v>12.720639555572141</v>
+      </c>
+      <c r="L33" t="n">
+        <v>99.99999999999993</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2047.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.9049751084058332E8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.9049751084058344E8</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3435204.6894925744</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.0929486783021946E8</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9996722.503532292</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.7041815899746884E7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>119943.02089851836</v>
+      </c>
+      <c r="K34" t="n">
+        <v>12.703306250689803</v>
+      </c>
+      <c r="L34" t="n">
+        <v>99.99999999999993</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2048.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.9727135252096805E8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.9727135252096814E8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3556165.639031543</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.135165781431208E8</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.0343448005247997E7</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.8028608754090123E7</v>
+      </c>
+      <c r="J35" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K35" t="n">
+        <v>12.687628095392366</v>
+      </c>
+      <c r="L35" t="n">
         <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2049.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.0429416524097106E8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.0429416524097115E8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3682227.2974112774</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.178776427827349E8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.0705513668737115E7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.9054094402985033E7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K36" t="n">
+        <v>12.673694957888495</v>
+      </c>
+      <c r="L36" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2050.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.1157301758769456E8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.1157301758769462E8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3813668.61719392</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.2238392375146352E8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.1083378774549374E7</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.0120242858312186E7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12.661480304570235</v>
+      </c>
+      <c r="L37" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2051.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.191152972190387E8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2.1911529721903875E8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3951448.7501849295</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.2704096674527033E8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.1464144829497587E7</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.12286791215834E7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K38" t="n">
+        <v>12.653268922456359</v>
+      </c>
+      <c r="L38" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2052.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.2694378972235617E8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.2694378972235623E8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4095146.0480045103</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.3185060200203918E8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.1862118425015738E7</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.2381776897974014E7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12.646452543068214</v>
+      </c>
+      <c r="L39" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2053.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2.3506713660288244E8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.3506713660288256E8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>4245014.694914724</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.368161277256682E8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.2279009028853655E7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.3581677120841324E7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12.64086567100069</v>
+      </c>
+      <c r="L40" t="n">
+        <v>99.99999999999994</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2054.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.4349304508344194E8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.434930450834421E8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4401432.646349094</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.4193320019927296E8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.2716270052973332E7</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.48306310778501E7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K41" t="n">
+        <v>12.6366721191799</v>
+      </c>
+      <c r="L41" t="n">
+        <v>99.99999999999993</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2055.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.5222862773338702E8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.5222862773338708E8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4564699.16148499</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.4720587636154342E8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.3174927978162667E7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.613098077373276E7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K42" t="n">
+        <v>12.633753813855861</v>
+      </c>
+      <c r="L42" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2056.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2.6128073283817077E8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.6128073283817086E8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4734950.822532542</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.526501196626598E8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.3654686271144688E7</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.7484685157590866E7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K43" t="n">
+        <v>12.631694257604527</v>
+      </c>
+      <c r="L43" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2057.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.7065716970030165E8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.7065716970030177E8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4912496.06057457</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.5827012466535652E8</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.4155696389445351E7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.889298110546564E7</v>
+      </c>
+      <c r="J44" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K44" t="n">
+        <v>12.630803607605731</v>
+      </c>
+      <c r="L44" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2058.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.803664821508596E8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.803664821508597E8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5097523.63451359</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.6406644542792547E8</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.4678435095138313E7</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4.035707940086708E7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K45" t="n">
+        <v>12.631051875384392</v>
+      </c>
+      <c r="L45" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2059.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2.90417524565277E8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2.9041752456527704E8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>5290294.303404905</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.700517534726919E8</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.522270020531683E7</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4.187927754323259E7</v>
+      </c>
+      <c r="J46" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K46" t="n">
+        <v>12.632248247223599</v>
+      </c>
+      <c r="L46" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2060.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3.00820289766459E8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.008202897664591E8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5491108.3546920065</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.7623080546450913E8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.5789174664636455E7</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.3461729027405344E7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.634353205850413</v>
+      </c>
+      <c r="L47" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2061.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>3.115850846571119E8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.11585084657112E8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5700203.663935524</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.8262821102401626E8</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.6375953520462193E7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.5107097647340104E7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12.637043749747123</v>
+      </c>
+      <c r="L48" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2062.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.2272526157362765E8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.2272526157362777E8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5917789.227768723</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.8925576449032515E8</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1.6984533155098498E7</v>
+      </c>
+      <c r="I49" t="n">
+        <v>4.681712602346695E7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12.640223205504858</v>
+      </c>
+      <c r="L49" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2063.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.342537601756544E8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.342537601756546E8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>6144091.890691827</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.961332077715865E8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.7613824949942704E7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.859413219638899E7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>119943.0208985184</v>
+      </c>
+      <c r="K50" t="n">
+        <v>12.643690941657336</v>
+      </c>
+      <c r="L50" t="n">
+        <v>99.99999999999994</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2064.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3.4618586908234286E8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.4618586908234304E8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6379322.684915259</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.0328246733183253E8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.826325345053871E7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.0440462592642E7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K51" t="n">
+        <v>12.647232711632272</v>
+      </c>
+      <c r="L51" t="n">
+        <v>99.99999999999994</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2065.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.5853882884468156E8</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.585388288446817E8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6623744.391946965</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.107199365944625E8</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.8932832499981787E7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.235857766178948E7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K52" t="n">
+        <v>12.650734011021228</v>
+      </c>
+      <c r="L52" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2066.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.7133139694005364E8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.713313969400538E8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6877528.515382228</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.1847557404737008E8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.9620721181630436E7</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5.43509656924566E7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K53" t="n">
+        <v>12.653921467188878</v>
+      </c>
+      <c r="L53" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2067.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.845858490836564E8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.845858490836565E8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7141049.144150957</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.2654874752084216E8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.033008047679212E7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.64200463335999E7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>119943.02089851843</v>
+      </c>
+      <c r="K54" t="n">
+        <v>12.656935979682526</v>
+      </c>
+      <c r="L54" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2068.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.9832308703796387E8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.98323087037964E8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7414630.999851951</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.3495210381282187E8</v>
+      </c>
+      <c r="H55" t="n">
+        <v>2.1060872024717223E7</v>
+      </c>
+      <c r="I55" t="n">
+        <v>5.8568492401504524E7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K55" t="n">
+        <v>12.65976072770055</v>
+      </c>
+      <c r="L55" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2069.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.1256591734904826E8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.125659173490484E8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>7698630.897192404</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.437010247713302E8</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.1813623249057744E7</v>
+      </c>
+      <c r="I56" t="n">
+        <v>6.079935846486566E7</v>
+      </c>
+      <c r="J56" t="n">
+        <v>119943.02089851841</v>
+      </c>
+      <c r="K56" t="n">
+        <v>12.662355478045445</v>
+      </c>
+      <c r="L56" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2070.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4.273386170594787E8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.273386170594788E8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>7993413.256257517</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.528091896164044E8</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.2589222920479495E7</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6.311565005783797E7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>119943.02089851839</v>
+      </c>
+      <c r="K57" t="n">
+        <v>12.6647087512091</v>
+      </c>
+      <c r="L57" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2071.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4.426666609314129E8</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.4266666093141294E8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>8299362.586207029</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.622903984487032E8</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.338867807642341E7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6.5520498967616655E7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K58" t="n">
+        <v>12.666818349947196</v>
+      </c>
+      <c r="L58" t="n">
+        <v>99.99999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2072.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4.5857670298568326E8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.585767029856833E8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>8616820.731769372</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.7216345372078717E8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.4212580823101614E7</v>
+      </c>
+      <c r="I59" t="n">
+        <v>6.80170381914957E7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K59" t="n">
+        <v>12.668620923347923</v>
+      </c>
+      <c r="L59" t="n">
+        <v>99.99999999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2073.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.750970612541915E8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.7509706125419164E8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8946196.033004606</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.824426897322986E8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.5062311417896524E7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.060861101295677E7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>119943.02089851836</v>
+      </c>
+      <c r="K60" t="n">
+        <v>12.67012040693304</v>
+      </c>
+      <c r="L60" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2074.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.9225706444482386E8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.92257064444824E8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>9287914.718619913</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.931426815239911E8</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.59393447093537E7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.329869097050753E7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>119943.02089851836</v>
+      </c>
+      <c r="K61" t="n">
+        <v>12.671324133683367</v>
+      </c>
+      <c r="L61" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2075.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5.100870429520116E8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.100870429520117E8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>9642423.358473351</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.042780898742537E8</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.6845320580492284E7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.609089007862635E7</v>
+      </c>
+      <c r="J62" t="n">
+        <v>119943.02089851836</v>
+      </c>
+      <c r="K62" t="n">
+        <v>12.672244139225638</v>
+      </c>
+      <c r="L62" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2076.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.286182462954172E8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.2861824629541725E8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.0010188794789474E7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>3.158638118754153E8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.778203555565959E7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7.898896412643902E7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K63" t="n">
+        <v>12.672895391773956</v>
+      </c>
+      <c r="L63" t="n">
+        <v>99.99999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2077.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.478827635008017E8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.478827635008019E8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.039169823004778E7</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3.2791530800679296E8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2.8751404083364192E7</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8.199681698576261E7</v>
+      </c>
+      <c r="J64" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K64" t="n">
+        <v>12.673294661977094</v>
+      </c>
+      <c r="L64" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2078.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.67913479326928E8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>5.679134793269281E8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0787463417891677E7</v>
+      </c>
+      <c r="G65" t="n">
+        <v>3.404480680234183E8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2.975548803537394E7</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8.511851489946362E7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K65" t="n">
+        <v>12.673462913013836</v>
+      </c>
+      <c r="L65" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2079.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.887440001758806E8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>5.887440001758808E8</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.1198019246752953E7</v>
+      </c>
+      <c r="G66" t="n">
+        <v>3.534779604026545E8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3.079646326198867E7</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8.835828885843897E7</v>
+      </c>
+      <c r="J66" t="n">
+        <v>119943.02089851839</v>
+      </c>
+      <c r="K66" t="n">
+        <v>12.673422484101723</v>
+      </c>
+      <c r="L66" t="n">
+        <v>99.99999999999996</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2080.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>6.104086089822916E8</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6.104086089822917E8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.1623925459714282E7</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.6702116350525945E8</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3.1876594017417513E7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>9.172054309330453E7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K67" t="n">
+        <v>12.6731973750849</v>
+      </c>
+      <c r="L67" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2081.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.32942246105371E8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>6.329422461053712E8</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.2065767272386983E7</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.8109424283711E8</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3.2998226202347882E7</v>
+      </c>
+      <c r="I68" t="n">
+        <v>9.520986242470598E7</v>
+      </c>
+      <c r="J68" t="n">
+        <v>119943.02089851839</v>
+      </c>
+      <c r="K68" t="n">
+        <v>12.672812422062737</v>
+      </c>
+      <c r="L68" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2082.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.563804967456274E8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.563804967456276E8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.2524155521693897E7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.9571436166618264E8</v>
+      </c>
+      <c r="H69" t="n">
+        <v>3.416374361192208E7</v>
+      </c>
+      <c r="I69" t="n">
+        <v>9.883101787831174E7</v>
+      </c>
+      <c r="J69" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K69" t="n">
+        <v>12.672292353716916</v>
+      </c>
+      <c r="L69" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2083.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.807596245329158E8</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.807596245329161E8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.299973007903252E7</v>
+      </c>
+      <c r="G70" t="n">
+        <v>4.1089904338830054E8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.537557756984438E7</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.0258898016626242E8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>119943.02089851837</v>
+      </c>
+      <c r="K70" t="n">
+        <v>12.671663231240146</v>
+      </c>
+      <c r="L70" t="n">
+        <v>99.99999999999997</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2084.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.061166008776563E8</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7.061166008776566E8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.3493159232092187E7</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.2666642604222924E8</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3.6636185494634554E7</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.0648892465846695E8</v>
+      </c>
+      <c r="J71" t="n">
+        <v>119943.02089851836</v>
+      </c>
+      <c r="K71" t="n">
+        <v>12.670950782316256</v>
+      </c>
+      <c r="L71" t="n">
+        <v>99.99999999999997</v>
       </c>
     </row>
   </sheetData>
